--- a/Kelompok Developer/List Kebutuhan.xlsx
+++ b/Kelompok Developer/List Kebutuhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\Kelompok Developer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\RK_B_IBK\Kelompok Developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16103417-67FC-431B-9E52-5AB76E0F9A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3D634-2F66-43AA-B11C-DD4E536D25D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List Kebutuhan" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Kebutuhan Bisnis</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Kebutuhan Fungsional</t>
   </si>
   <si>
-    <t>Operasional (berjalan di semua browser)</t>
-  </si>
-  <si>
     <t>Tugas Analisa Sistem</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Customer dapat memantau dan mengelola pesanan</t>
   </si>
   <si>
-    <t>Sistem dapat menampilkan daftar menu beserta harganya</t>
-  </si>
-  <si>
     <t>Sistem dapat menampilkan ketersediaan menu</t>
   </si>
   <si>
@@ -97,13 +91,37 @@
     <t>Kebutuhan non-Fungsional</t>
   </si>
   <si>
-    <t>Operasional (berjalan di semua browser), Performa (diakses bersamaan oleh banyak pengguna)</t>
-  </si>
-  <si>
-    <t>Operasional (berjalan di semua browser), Performa (diakses bersamaan oleh banyak pengguna), Keamanan (diakses sesuai dengan hak akses)</t>
-  </si>
-  <si>
     <t>Aplikasi: IBK online  ---- Aplikasi untuk pemesanan online IBK</t>
+  </si>
+  <si>
+    <t>Operasional (berjalan pada Android diatas versi 6.0), Performa (dapat diakses bersamaan oleh maksimal 1000 pengguna)</t>
+  </si>
+  <si>
+    <t>Operasional (berjalan pada Android diatas versi 6.0), Performa (dapat diakses bersamaan oleh maksimal 1000 pengguna), Keamanan (diakses sesuai dengan hak akses)</t>
+  </si>
+  <si>
+    <t>Operasional (berjalan pada Android diatas versi 6.0), Usability (tampilan user-friendly dan user dapat menggunakan fitur tanpa manual guide)</t>
+  </si>
+  <si>
+    <t>Sistem dapat menampilkan daftar menu beserta harga dan ongkos kirim</t>
+  </si>
+  <si>
+    <t>Driver dapat mengantarkan pesanan sesuai informasi customer</t>
+  </si>
+  <si>
+    <t>Sistem dapat menampilkan pembatalkan pesanan</t>
+  </si>
+  <si>
+    <t>Sistem dapat menampilkan rating pesanan</t>
+  </si>
+  <si>
+    <t>Sistem dapat menampilkan pembayaran pesanan dengan dompet digital</t>
+  </si>
+  <si>
+    <t>Sistem dapat menampilkan navigasi menuju lokasi pemesan</t>
+  </si>
+  <si>
+    <t>Sistem dapat menghitung estimasi jumlah bahan bakar yang terpakai</t>
   </si>
 </sst>
 </file>
@@ -212,19 +230,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -232,26 +250,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,181 +600,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43ABA1-C21F-4DEF-AAED-ED39C865635C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29" style="8" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="8"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="14">
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A13:A22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B4:B5"/>
@@ -773,6 +834,10 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Kelompok Developer/List Kebutuhan.xlsx
+++ b/Kelompok Developer/List Kebutuhan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\RK_B_IBK\Kelompok Developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3D634-2F66-43AA-B11C-DD4E536D25D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDFB9E-0D0A-4A7A-960A-89A0E93B391F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Kebutuhan Bisnis</t>
   </si>
@@ -37,57 +37,9 @@
     <t>Memudahkan customer untuk memilih dan melakukan pesanan online</t>
   </si>
   <si>
-    <t>Customer dapat melihat daftar menu beserta harganya</t>
-  </si>
-  <si>
-    <t>Customer dapat memantau dan mengelola pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan ketersediaan menu</t>
-  </si>
-  <si>
-    <t>Customer dapat melakukan pemesanan makanan maupun minuman</t>
-  </si>
-  <si>
-    <t>Sistem memungkinkan pengguna untuk daftar atau masuk ke sistem</t>
-  </si>
-  <si>
-    <t>Sistem memungkinkan customer melakukan pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan status pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menyelesaikan/membatalkan pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat melakukan rating pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menghubungkan customer dan driver</t>
-  </si>
-  <si>
-    <t>Manager dapat menerima ringkasan pesanan harian</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan ringkasan pesanan harian</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan daftar semua pesanan</t>
-  </si>
-  <si>
-    <t>Cashier dapat mengelola pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat mengubah status pesanan</t>
-  </si>
-  <si>
     <t>Memudahkan pihak IBK untuk mengelola pesanan</t>
   </si>
   <si>
-    <t>Sistem dapat melakukan pembayaran pesanan dengan dompet digital</t>
-  </si>
-  <si>
     <t>Kebutuhan non-Fungsional</t>
   </si>
   <si>
@@ -103,25 +55,76 @@
     <t>Operasional (berjalan pada Android diatas versi 6.0), Usability (tampilan user-friendly dan user dapat menggunakan fitur tanpa manual guide)</t>
   </si>
   <si>
-    <t>Sistem dapat menampilkan daftar menu beserta harga dan ongkos kirim</t>
-  </si>
-  <si>
-    <t>Driver dapat mengantarkan pesanan sesuai informasi customer</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan pembatalkan pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan rating pesanan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan pembayaran pesanan dengan dompet digital</t>
-  </si>
-  <si>
-    <t>Sistem dapat menampilkan navigasi menuju lokasi pemesan</t>
-  </si>
-  <si>
-    <t>Sistem dapat menghitung estimasi jumlah bahan bakar yang terpakai</t>
+    <t>1. Customer dapat melihat daftar menu beserta harganya</t>
+  </si>
+  <si>
+    <t>2. Customer dapat melakukan pemesanan makanan maupun minuman</t>
+  </si>
+  <si>
+    <t>3. Customer dapat memantau dan mengelola pesanan</t>
+  </si>
+  <si>
+    <t>4. Manager dapat menerima ringkasan pesanan harian</t>
+  </si>
+  <si>
+    <t>5. Cashier dapat mengelola pesanan</t>
+  </si>
+  <si>
+    <t>6. Driver dapat mengantarkan pesanan sesuai informasi customer</t>
+  </si>
+  <si>
+    <t>F 1.1 Sistem dapat menampilkan daftar menu beserta harga dan ongkos kirim</t>
+  </si>
+  <si>
+    <t>F 1.2 Sistem dapat menampilkan ketersediaan menu</t>
+  </si>
+  <si>
+    <t>F 2.1 Sistem memungkinkan pengguna untuk daftar atau masuk ke sistem</t>
+  </si>
+  <si>
+    <t>F 2.2 Sistem memungkinkan customer melakukan pesanan</t>
+  </si>
+  <si>
+    <t>F 3.1 Sistem dapat menampilkan status pesanan</t>
+  </si>
+  <si>
+    <t>F 3.2 Sistem dapat menyelesaikan/membatalkan pesanan</t>
+  </si>
+  <si>
+    <t>F 3.3 Sistem dapat menghubungkan customer dan driver</t>
+  </si>
+  <si>
+    <t>F 3.4 Sistem dapat melakukan rating pesanan</t>
+  </si>
+  <si>
+    <t>F 3.5 Sistem dapat melakukan pembayaran pesanan dengan dompet digital</t>
+  </si>
+  <si>
+    <t>F 4.1 Sistem dapat menampilkan ringkasan pesanan harian</t>
+  </si>
+  <si>
+    <t>F 5.1 Sistem dapat menampilkan daftar semua pesanan</t>
+  </si>
+  <si>
+    <t>F 5.2 Sistem dapat mengubah status pesanan</t>
+  </si>
+  <si>
+    <t>F 6.1 Sistem dapat mengubah status pesanan</t>
+  </si>
+  <si>
+    <t>F 6.2 Sistem dapat menampilkan pembatalan pesanan</t>
+  </si>
+  <si>
+    <t>F 6.3 Sistem dapat menampilkan rating pesanan</t>
+  </si>
+  <si>
+    <t>F 6.4 Sistem dapat menampilkan pembayaran pesanan dengan dompet digital</t>
+  </si>
+  <si>
+    <t>F 6.5 Sistem dapat menampilkan navigasi menuju lokasi pemesan</t>
+  </si>
+  <si>
+    <t>F 6.6 Sistem dapat menghitung estimasi jumlah bahan bakar yang terpakai</t>
   </si>
 </sst>
 </file>
@@ -241,12 +244,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -255,12 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43ABA1-C21F-4DEF-AAED-ED39C865635C}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,218 +618,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A13:A21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B4:B5"/>
